--- a/InputData/Customers_details.xlsx
+++ b/InputData/Customers_details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
   <si>
     <t>Email</t>
   </si>
@@ -202,12 +202,76 @@
   </si>
   <si>
     <t>sukanya@123</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 15:27:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra </t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 15:49:46</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 15:52:41</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 15:54:00</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:01:52</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:08:42</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:09:51</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:37:32</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:39:51</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:44:30</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:46:45</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:48:11</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:49:51</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:53:27</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:56:22</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 16:57:33</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 17:00:34</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 17:02:00</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 17:04:53</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 18:03:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -555,21 +619,21 @@
   <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16" width="8.7109375" style="1" collapsed="1"/>
-    <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.0" collapsed="true"/>
+    <col min="6" max="7" style="1" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="9" max="16" style="1" width="8.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="10.85546875" collapsed="true"/>
+    <col min="18" max="16384" style="1" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="45">
@@ -797,7 +861,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -824,7 +888,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="M3" s="1">
         <v>411011</v>

--- a/InputData/Customers_details.xlsx
+++ b/InputData/Customers_details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Email</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Quick 2020/01/28 18:03:02</t>
+  </si>
+  <si>
+    <t>Quick 2020/01/28 20:29:43</t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
